--- a/biology/Médecine/Processus_alvéolaire_du_maxillaire/Processus_alvéolaire_du_maxillaire.xlsx
+++ b/biology/Médecine/Processus_alvéolaire_du_maxillaire/Processus_alvéolaire_du_maxillaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Processus_alv%C3%A9olaire_du_maxillaire</t>
+          <t>Processus_alvéolaire_du_maxillaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le processus alvéolaire du maxillaire est la crête osseuse épaisse qui forme le bord inférieur de l'os maxillaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Processus_alv%C3%A9olaire_du_maxillaire</t>
+          <t>Processus_alvéolaire_du_maxillaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus alvéolaire du maxillaire est concave en arrière et en dedans. Son union avec celui du maxillaire opposé forme un demi cercle concave en arrière.
 Sa face inférieure présente huit cavités coniques formant les alvéoles dentaires et constituant l'arc alvéolaire du maxillaire.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Processus_alv%C3%A9olaire_du_maxillaire</t>
+          <t>Processus_alvéolaire_du_maxillaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os péri-alvéolaire peut être sujet à une perte osseuse fragilisant l'implantation dentaire.
 L'absence congénitale de un ou tous les germes dentaires (hypodontie ou anodontie) affecte le développement du processus alvéolaire.
